--- a/V1/Dataset/GECCO20Poster.xlsx
+++ b/V1/Dataset/GECCO20Poster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\V1\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AEF3DB-44A1-4E98-9AEF-0C155FD8ADDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDD5E11-E148-4719-8C06-6873B6B80EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1737,7 +1737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="243">
   <si>
     <t>Sessions</t>
   </si>
@@ -2474,12 +2474,6 @@
   </si>
   <si>
     <t>Preferred Number of Timeslots:</t>
-  </si>
-  <si>
-    <t>Min Number of Timeslots:</t>
-  </si>
-  <si>
-    <t>Max Number of Timeslots:</t>
   </si>
   <si>
     <t>Submission</t>
@@ -3214,18 +3208,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3235,6 +3217,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3243,12 +3231,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3262,10 +3244,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3282,9 +3276,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3307,14 +3298,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3683,7 +3677,7 @@
       <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="50"/>
@@ -3706,347 +3700,347 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="60"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="60"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="60"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="62"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="35"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="35"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="44"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="32"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="32"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="60"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
@@ -4055,427 +4049,439 @@
       <c r="E57" s="19"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="35"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="35"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="40"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="44"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="40"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="44"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="44"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="42"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="38"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="36"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="38"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="36"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="44"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="32"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="60"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="30"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="46"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="38"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="36"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="38"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="36"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="40"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="40"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="44"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="44"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="40"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="44"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="40"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="44"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="40"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="40"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="46"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="38"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="36"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="38"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="36"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="40"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="40"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="44"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="40"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="44"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="40"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="40"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="44"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="40"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="40"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="39"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="40"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="44"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="30"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="46"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="38"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="36"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="37"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="38"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="36"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="39" t="s">
+      <c r="A93" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="40"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="44"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="40"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="44"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="39"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="40"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="44"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="39"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="40"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="44"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="40"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="44"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="39"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="40"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="44"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="40"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="40"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="44"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="30"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="46"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="36" t="s">
+      <c r="A102" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="38"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="36"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="37"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="38"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="36"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="39" t="s">
+      <c r="A104" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="40"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="44"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="39"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="40"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="44"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="39"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="40"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="44"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="40"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="44"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="39"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="40"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="44"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="39"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="40"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="44"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="39"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="40"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="39"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="40"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="44"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="30"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A46:E47"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E39"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A93:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="A60:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A71:E78"/>
+    <mergeCell ref="A102:E103"/>
+    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A80:E81"/>
     <mergeCell ref="A82:E89"/>
     <mergeCell ref="A90:E90"/>
@@ -4492,27 +4498,15 @@
     <mergeCell ref="A20:E21"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A27:E29"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="A91:E92"/>
-    <mergeCell ref="A93:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="A60:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A71:E78"/>
-    <mergeCell ref="A102:E103"/>
-    <mergeCell ref="A104:E111"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4539,7 +4533,7 @@
     <row r="1" spans="1:40" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -4582,7 +4576,7 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="8"/>
     </row>
@@ -4618,7 +4612,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -4633,7 +4627,7 @@
     <row r="1" spans="1:16" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4649,13 +4643,13 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B3" s="3"/>
     </row>
@@ -4681,10 +4675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4773B-09CB-4AE1-B7A2-EA1A4F4D3191}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4719,7 +4713,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>48</v>
@@ -4802,7 +4796,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D10" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10" s="26">
         <v>9</v>
@@ -4958,22 +4952,6 @@
       </c>
       <c r="E29" s="26">
         <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="26">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="26">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5010,7 +4988,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="7" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -5043,21 +5021,21 @@
         <v>5</v>
       </c>
       <c r="L1" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>242</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -5086,10 +5064,10 @@
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -5117,10 +5095,10 @@
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -5149,10 +5127,10 @@
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -5180,10 +5158,10 @@
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -5209,10 +5187,10 @@
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -5241,10 +5219,10 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -5270,10 +5248,10 @@
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -5302,10 +5280,10 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -5331,10 +5309,10 @@
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -5360,10 +5338,10 @@
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -5389,10 +5367,10 @@
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -5418,10 +5396,10 @@
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -5450,10 +5428,10 @@
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -5478,10 +5456,10 @@
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -5507,10 +5485,10 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -5536,10 +5514,10 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -5565,10 +5543,10 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -5594,10 +5572,10 @@
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -5620,10 +5598,10 @@
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -5646,10 +5624,10 @@
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -5672,10 +5650,10 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -5698,10 +5676,10 @@
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -5725,10 +5703,10 @@
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -5752,10 +5730,10 @@
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -5782,10 +5760,10 @@
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -5812,10 +5790,10 @@
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -5841,10 +5819,10 @@
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -5867,10 +5845,10 @@
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -5893,10 +5871,10 @@
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -5921,10 +5899,10 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -5950,10 +5928,10 @@
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -5981,10 +5959,10 @@
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -6009,10 +5987,10 @@
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -6036,10 +6014,10 @@
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -6066,10 +6044,10 @@
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -6097,10 +6075,10 @@
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -6125,10 +6103,10 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -6151,10 +6129,10 @@
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -6174,10 +6152,10 @@
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -6200,10 +6178,10 @@
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -6226,10 +6204,10 @@
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -6252,10 +6230,10 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -6278,10 +6256,10 @@
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -6304,10 +6282,10 @@
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -6327,10 +6305,10 @@
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -6353,10 +6331,10 @@
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -6376,10 +6354,10 @@
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -6399,10 +6377,10 @@
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -6422,10 +6400,10 @@
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -6445,10 +6423,10 @@
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -6471,10 +6449,10 @@
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -6494,10 +6472,10 @@
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -6517,10 +6495,10 @@
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -6540,10 +6518,10 @@
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -6566,10 +6544,10 @@
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -6592,10 +6570,10 @@
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -6615,10 +6593,10 @@
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -6638,10 +6616,10 @@
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -6661,10 +6639,10 @@
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -6684,10 +6662,10 @@
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -6707,10 +6685,10 @@
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -6733,10 +6711,10 @@
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -6756,10 +6734,10 @@
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -6782,10 +6760,10 @@
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -6805,10 +6783,10 @@
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -6831,10 +6809,10 @@
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -6854,10 +6832,10 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -6877,10 +6855,10 @@
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -6900,10 +6878,10 @@
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -6926,10 +6904,10 @@
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -6949,10 +6927,10 @@
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -6972,10 +6950,10 @@
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -6998,10 +6976,10 @@
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -7021,10 +6999,10 @@
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -7044,10 +7022,10 @@
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -7067,10 +7045,10 @@
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
@@ -7090,10 +7068,10 @@
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" s="1">
         <v>1</v>
@@ -7113,10 +7091,10 @@
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -7139,10 +7117,10 @@
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C81" s="1">
         <v>1</v>
@@ -7165,10 +7143,10 @@
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C82" s="1">
         <v>1</v>
@@ -7191,10 +7169,10 @@
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -7214,10 +7192,10 @@
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -7240,10 +7218,10 @@
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -7263,10 +7241,10 @@
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -7286,10 +7264,10 @@
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C87" s="1">
         <v>1</v>
@@ -7309,10 +7287,10 @@
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -7332,10 +7310,10 @@
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -7355,10 +7333,10 @@
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -7381,10 +7359,10 @@
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -7407,10 +7385,10 @@
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -7430,10 +7408,10 @@
     </row>
     <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -7456,10 +7434,10 @@
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -7482,10 +7460,10 @@
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -7505,10 +7483,10 @@
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -7528,10 +7506,10 @@
     </row>
     <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -7554,10 +7532,10 @@
     </row>
     <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -7577,10 +7555,10 @@
     </row>
     <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -7603,10 +7581,10 @@
     </row>
     <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -7626,10 +7604,10 @@
     </row>
     <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C101" s="1">
         <v>1</v>
@@ -7652,10 +7630,10 @@
     </row>
     <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -7675,10 +7653,10 @@
     </row>
     <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -7698,10 +7676,10 @@
     </row>
     <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -7721,10 +7699,10 @@
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -7744,10 +7722,10 @@
     </row>
     <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -7767,10 +7745,10 @@
     </row>
     <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -7790,10 +7768,10 @@
     </row>
     <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -7813,10 +7791,10 @@
     </row>
     <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -7836,10 +7814,10 @@
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -7859,10 +7837,10 @@
     </row>
     <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -7882,10 +7860,10 @@
     </row>
     <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C112" s="1">
         <v>1</v>
@@ -7908,10 +7886,10 @@
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C113" s="1">
         <v>1</v>
@@ -7931,10 +7909,10 @@
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -7957,10 +7935,10 @@
     </row>
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
@@ -7980,10 +7958,10 @@
     </row>
     <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C116" s="1">
         <v>1</v>
@@ -8003,10 +7981,10 @@
     </row>
     <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
@@ -8026,10 +8004,10 @@
     </row>
     <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
@@ -8049,10 +8027,10 @@
     </row>
     <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
@@ -8072,10 +8050,10 @@
     </row>
     <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
@@ -8098,10 +8076,10 @@
     </row>
     <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -8124,10 +8102,10 @@
     </row>
     <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -8147,10 +8125,10 @@
     </row>
     <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
@@ -8170,10 +8148,10 @@
     </row>
     <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -8193,10 +8171,10 @@
     </row>
     <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -8216,10 +8194,10 @@
     </row>
     <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -8239,10 +8217,10 @@
     </row>
     <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -8262,10 +8240,10 @@
     </row>
     <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -8288,10 +8266,10 @@
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -8311,10 +8289,10 @@
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -8334,10 +8312,10 @@
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C131" s="1">
         <v>1</v>
@@ -8357,10 +8335,10 @@
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
@@ -8630,7 +8608,7 @@
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -9052,7 +9030,7 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B2" s="1">
         <v>66</v>
@@ -9075,7 +9053,7 @@
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1">
         <v>66</v>
@@ -9177,7 +9155,7 @@
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>86</v>
@@ -9257,15 +9235,15 @@
     <row r="1" spans="1:3" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9322,7 +9300,7 @@
     <row r="1" spans="1:16" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9338,7 +9316,7 @@
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
